--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Tnfsf12-Tnfrsf12a.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Tnfsf12-Tnfrsf12a.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.70197894978549</v>
+        <v>5.742066</v>
       </c>
       <c r="H2">
-        <v>5.70197894978549</v>
+        <v>17.226198</v>
       </c>
       <c r="I2">
-        <v>0.2577808781920138</v>
+        <v>0.2447097919555983</v>
       </c>
       <c r="J2">
-        <v>0.2577808781920138</v>
+        <v>0.2447097919555983</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.94587329520599</v>
+        <v>4.765403666666667</v>
       </c>
       <c r="N2">
-        <v>3.94587329520599</v>
+        <v>14.296211</v>
       </c>
       <c r="O2">
-        <v>0.07209093039070552</v>
+        <v>0.08284483696442199</v>
       </c>
       <c r="P2">
-        <v>0.07209093039070552</v>
+        <v>0.08284483696442199</v>
       </c>
       <c r="Q2">
-        <v>22.49928646778526</v>
+        <v>27.363262370642</v>
       </c>
       <c r="R2">
-        <v>22.49928646778526</v>
+        <v>246.269361335778</v>
       </c>
       <c r="S2">
-        <v>0.0185836633457954</v>
+        <v>0.02027294281815916</v>
       </c>
       <c r="T2">
-        <v>0.0185836633457954</v>
+        <v>0.02027294281815917</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.70197894978549</v>
+        <v>5.742066</v>
       </c>
       <c r="H3">
-        <v>5.70197894978549</v>
+        <v>17.226198</v>
       </c>
       <c r="I3">
-        <v>0.2577808781920138</v>
+        <v>0.2447097919555983</v>
       </c>
       <c r="J3">
-        <v>0.2577808781920138</v>
+        <v>0.2447097919555983</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>16.2925037696789</v>
+        <v>16.336489</v>
       </c>
       <c r="N3">
-        <v>16.2925037696789</v>
+        <v>49.00946700000001</v>
       </c>
       <c r="O3">
-        <v>0.2976633224835754</v>
+        <v>0.2840040136038997</v>
       </c>
       <c r="P3">
-        <v>0.2976633224835754</v>
+        <v>0.2840040136038997</v>
       </c>
       <c r="Q3">
-        <v>92.89951353400981</v>
+        <v>93.80519804627403</v>
       </c>
       <c r="R3">
-        <v>92.89951353400981</v>
+        <v>844.2467824164661</v>
       </c>
       <c r="S3">
-        <v>0.07673191267536866</v>
+        <v>0.06949856308356521</v>
       </c>
       <c r="T3">
-        <v>0.07673191267536866</v>
+        <v>0.06949856308356521</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.70197894978549</v>
+        <v>5.742066</v>
       </c>
       <c r="H4">
-        <v>5.70197894978549</v>
+        <v>17.226198</v>
       </c>
       <c r="I4">
-        <v>0.2577808781920138</v>
+        <v>0.2447097919555983</v>
       </c>
       <c r="J4">
-        <v>0.2577808781920138</v>
+        <v>0.2447097919555983</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.40905119046333</v>
+        <v>10.06211</v>
       </c>
       <c r="N4">
-        <v>8.40905119046333</v>
+        <v>30.18633</v>
       </c>
       <c r="O4">
-        <v>0.1536329929194861</v>
+        <v>0.174926180608571</v>
       </c>
       <c r="P4">
-        <v>0.1536329929194861</v>
+        <v>0.1749261806085711</v>
       </c>
       <c r="Q4">
-        <v>47.94823287569052</v>
+        <v>57.77729971925999</v>
       </c>
       <c r="R4">
-        <v>47.94823287569052</v>
+        <v>519.99569747334</v>
       </c>
       <c r="S4">
-        <v>0.03960364783405257</v>
+        <v>0.04280614926431083</v>
       </c>
       <c r="T4">
-        <v>0.03960364783405257</v>
+        <v>0.04280614926431085</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.70197894978549</v>
+        <v>5.742066</v>
       </c>
       <c r="H5">
-        <v>5.70197894978549</v>
+        <v>17.226198</v>
       </c>
       <c r="I5">
-        <v>0.2577808781920138</v>
+        <v>0.2447097919555983</v>
       </c>
       <c r="J5">
-        <v>0.2577808781920138</v>
+        <v>0.2447097919555983</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.0872418872183</v>
+        <v>26.358033</v>
       </c>
       <c r="N5">
-        <v>26.0872418872183</v>
+        <v>79.074099</v>
       </c>
       <c r="O5">
-        <v>0.4766127542062331</v>
+        <v>0.4582249688231074</v>
       </c>
       <c r="P5">
-        <v>0.4766127542062331</v>
+        <v>0.4582249688231074</v>
       </c>
       <c r="Q5">
-        <v>148.748904098881</v>
+        <v>151.349565116178</v>
       </c>
       <c r="R5">
-        <v>148.748904098881</v>
+        <v>1362.146086045602</v>
       </c>
       <c r="S5">
-        <v>0.1228616543367972</v>
+        <v>0.1121321367895631</v>
       </c>
       <c r="T5">
-        <v>0.1228616543367972</v>
+        <v>0.1121321367895631</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.79774514281899</v>
+        <v>6.924657666666666</v>
       </c>
       <c r="H6">
-        <v>6.79774514281899</v>
+        <v>20.773973</v>
       </c>
       <c r="I6">
-        <v>0.3073193935076345</v>
+        <v>0.2951083350441702</v>
       </c>
       <c r="J6">
-        <v>0.3073193935076345</v>
+        <v>0.2951083350441703</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.94587329520599</v>
+        <v>4.765403666666667</v>
       </c>
       <c r="N6">
-        <v>3.94587329520599</v>
+        <v>14.296211</v>
       </c>
       <c r="O6">
-        <v>0.07209093039070552</v>
+        <v>0.08284483696442199</v>
       </c>
       <c r="P6">
-        <v>0.07209093039070552</v>
+        <v>0.08284483696442199</v>
       </c>
       <c r="Q6">
-        <v>26.82304102666568</v>
+        <v>32.99878903514477</v>
       </c>
       <c r="R6">
-        <v>26.82304102666568</v>
+        <v>296.9891013163029</v>
       </c>
       <c r="S6">
-        <v>0.02215494100507272</v>
+        <v>0.0244482019035763</v>
       </c>
       <c r="T6">
-        <v>0.02215494100507272</v>
+        <v>0.02444820190357631</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.79774514281899</v>
+        <v>6.924657666666666</v>
       </c>
       <c r="H7">
-        <v>6.79774514281899</v>
+        <v>20.773973</v>
       </c>
       <c r="I7">
-        <v>0.3073193935076345</v>
+        <v>0.2951083350441702</v>
       </c>
       <c r="J7">
-        <v>0.3073193935076345</v>
+        <v>0.2951083350441703</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.2925037696789</v>
+        <v>16.336489</v>
       </c>
       <c r="N7">
-        <v>16.2925037696789</v>
+        <v>49.00946700000001</v>
       </c>
       <c r="O7">
-        <v>0.2976633224835754</v>
+        <v>0.2840040136038997</v>
       </c>
       <c r="P7">
-        <v>0.2976633224835754</v>
+        <v>0.2840040136038997</v>
       </c>
       <c r="Q7">
-        <v>110.7522883646948</v>
+        <v>113.1245938002657</v>
       </c>
       <c r="R7">
-        <v>110.7522883646948</v>
+        <v>1018.121344202391</v>
       </c>
       <c r="S7">
-        <v>0.0914777117351198</v>
+        <v>0.08381195160050871</v>
       </c>
       <c r="T7">
-        <v>0.0914777117351198</v>
+        <v>0.08381195160050875</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.79774514281899</v>
+        <v>6.924657666666666</v>
       </c>
       <c r="H8">
-        <v>6.79774514281899</v>
+        <v>20.773973</v>
       </c>
       <c r="I8">
-        <v>0.3073193935076345</v>
+        <v>0.2951083350441702</v>
       </c>
       <c r="J8">
-        <v>0.3073193935076345</v>
+        <v>0.2951083350441703</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.40905119046333</v>
+        <v>10.06211</v>
       </c>
       <c r="N8">
-        <v>8.40905119046333</v>
+        <v>30.18633</v>
       </c>
       <c r="O8">
-        <v>0.1536329929194861</v>
+        <v>0.174926180608571</v>
       </c>
       <c r="P8">
-        <v>0.1536329929194861</v>
+        <v>0.1749261806085711</v>
       </c>
       <c r="Q8">
-        <v>57.16258688568835</v>
+        <v>69.67666715434332</v>
       </c>
       <c r="R8">
-        <v>57.16258688568835</v>
+        <v>627.0900043890899</v>
       </c>
       <c r="S8">
-        <v>0.04721439820677918</v>
+        <v>0.05162217391503122</v>
       </c>
       <c r="T8">
-        <v>0.04721439820677918</v>
+        <v>0.05162217391503125</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.79774514281899</v>
+        <v>6.924657666666666</v>
       </c>
       <c r="H9">
-        <v>6.79774514281899</v>
+        <v>20.773973</v>
       </c>
       <c r="I9">
-        <v>0.3073193935076345</v>
+        <v>0.2951083350441702</v>
       </c>
       <c r="J9">
-        <v>0.3073193935076345</v>
+        <v>0.2951083350441703</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>26.0872418872183</v>
+        <v>26.358033</v>
       </c>
       <c r="N9">
-        <v>26.0872418872183</v>
+        <v>79.074099</v>
       </c>
       <c r="O9">
-        <v>0.4766127542062331</v>
+        <v>0.4582249688231074</v>
       </c>
       <c r="P9">
-        <v>0.4766127542062331</v>
+        <v>0.4582249688231074</v>
       </c>
       <c r="Q9">
-        <v>177.3344218283823</v>
+        <v>182.520355291703</v>
       </c>
       <c r="R9">
-        <v>177.3344218283823</v>
+        <v>1642.683197625327</v>
       </c>
       <c r="S9">
-        <v>0.1464723425606628</v>
+        <v>0.135226007625054</v>
       </c>
       <c r="T9">
-        <v>0.1464723425606628</v>
+        <v>0.1352260076250541</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.50694982909322</v>
+        <v>8.617968666666666</v>
       </c>
       <c r="H10">
-        <v>7.50694982909322</v>
+        <v>25.853906</v>
       </c>
       <c r="I10">
-        <v>0.3393818420813074</v>
+        <v>0.3672722186578602</v>
       </c>
       <c r="J10">
-        <v>0.3393818420813074</v>
+        <v>0.3672722186578602</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.94587329520599</v>
+        <v>4.765403666666667</v>
       </c>
       <c r="N10">
-        <v>3.94587329520599</v>
+        <v>14.296211</v>
       </c>
       <c r="O10">
-        <v>0.07209093039070552</v>
+        <v>0.08284483696442199</v>
       </c>
       <c r="P10">
-        <v>0.07209093039070552</v>
+        <v>0.08284483696442199</v>
       </c>
       <c r="Q10">
-        <v>29.62147285907011</v>
+        <v>41.06809948335178</v>
       </c>
       <c r="R10">
-        <v>29.62147285907011</v>
+        <v>369.612895350166</v>
       </c>
       <c r="S10">
-        <v>0.02446635275335295</v>
+        <v>0.03042660707627197</v>
       </c>
       <c r="T10">
-        <v>0.02446635275335295</v>
+        <v>0.03042660707627198</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.50694982909322</v>
+        <v>8.617968666666666</v>
       </c>
       <c r="H11">
-        <v>7.50694982909322</v>
+        <v>25.853906</v>
       </c>
       <c r="I11">
-        <v>0.3393818420813074</v>
+        <v>0.3672722186578602</v>
       </c>
       <c r="J11">
-        <v>0.3393818420813074</v>
+        <v>0.3672722186578602</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.2925037696789</v>
+        <v>16.336489</v>
       </c>
       <c r="N11">
-        <v>16.2925037696789</v>
+        <v>49.00946700000001</v>
       </c>
       <c r="O11">
-        <v>0.2976633224835754</v>
+        <v>0.2840040136038997</v>
       </c>
       <c r="P11">
-        <v>0.2976633224835754</v>
+        <v>0.2840040136038997</v>
       </c>
       <c r="Q11">
-        <v>122.3070083892917</v>
+        <v>140.7873503253447</v>
       </c>
       <c r="R11">
-        <v>122.3070083892917</v>
+        <v>1267.086152928102</v>
       </c>
       <c r="S11">
-        <v>0.101021526704518</v>
+        <v>0.1043067841840414</v>
       </c>
       <c r="T11">
-        <v>0.101021526704518</v>
+        <v>0.1043067841840414</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.50694982909322</v>
+        <v>8.617968666666666</v>
       </c>
       <c r="H12">
-        <v>7.50694982909322</v>
+        <v>25.853906</v>
       </c>
       <c r="I12">
-        <v>0.3393818420813074</v>
+        <v>0.3672722186578602</v>
       </c>
       <c r="J12">
-        <v>0.3393818420813074</v>
+        <v>0.3672722186578602</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.40905119046333</v>
+        <v>10.06211</v>
       </c>
       <c r="N12">
-        <v>8.40905119046333</v>
+        <v>30.18633</v>
       </c>
       <c r="O12">
-        <v>0.1536329929194861</v>
+        <v>0.174926180608571</v>
       </c>
       <c r="P12">
-        <v>0.1536329929194861</v>
+        <v>0.1749261806085711</v>
       </c>
       <c r="Q12">
-        <v>63.12632539708484</v>
+        <v>86.71494870055332</v>
       </c>
       <c r="R12">
-        <v>63.12632539708484</v>
+        <v>780.4345383049799</v>
       </c>
       <c r="S12">
-        <v>0.05214024814147965</v>
+        <v>0.06424552645345545</v>
       </c>
       <c r="T12">
-        <v>0.05214024814147965</v>
+        <v>0.06424552645345546</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.50694982909322</v>
+        <v>8.617968666666666</v>
       </c>
       <c r="H13">
-        <v>7.50694982909322</v>
+        <v>25.853906</v>
       </c>
       <c r="I13">
-        <v>0.3393818420813074</v>
+        <v>0.3672722186578602</v>
       </c>
       <c r="J13">
-        <v>0.3393818420813074</v>
+        <v>0.3672722186578602</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>26.0872418872183</v>
+        <v>26.358033</v>
       </c>
       <c r="N13">
-        <v>26.0872418872183</v>
+        <v>79.074099</v>
       </c>
       <c r="O13">
-        <v>0.4766127542062331</v>
+        <v>0.4582249688231074</v>
       </c>
       <c r="P13">
-        <v>0.4766127542062331</v>
+        <v>0.4582249688231074</v>
       </c>
       <c r="Q13">
-        <v>195.8356160267669</v>
+        <v>227.152702508966</v>
       </c>
       <c r="R13">
-        <v>195.8356160267669</v>
+        <v>2044.374322580694</v>
       </c>
       <c r="S13">
-        <v>0.1617537144819568</v>
+        <v>0.1682933009440915</v>
       </c>
       <c r="T13">
-        <v>0.1617537144819568</v>
+        <v>0.1682933009440915</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.11280596283526</v>
+        <v>2.180106333333333</v>
       </c>
       <c r="H14">
-        <v>2.11280596283526</v>
+        <v>6.540318999999999</v>
       </c>
       <c r="I14">
-        <v>0.09551788621904436</v>
+        <v>0.09290965434237122</v>
       </c>
       <c r="J14">
-        <v>0.09551788621904436</v>
+        <v>0.09290965434237124</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.94587329520599</v>
+        <v>4.765403666666667</v>
       </c>
       <c r="N14">
-        <v>3.94587329520599</v>
+        <v>14.296211</v>
       </c>
       <c r="O14">
-        <v>0.07209093039070552</v>
+        <v>0.08284483696442199</v>
       </c>
       <c r="P14">
-        <v>0.07209093039070552</v>
+        <v>0.08284483696442199</v>
       </c>
       <c r="Q14">
-        <v>8.336864626703631</v>
+        <v>10.38908671458989</v>
       </c>
       <c r="R14">
-        <v>8.336864626703631</v>
+        <v>93.50178043130899</v>
       </c>
       <c r="S14">
-        <v>0.006885973286484457</v>
+        <v>0.007697085166414546</v>
       </c>
       <c r="T14">
-        <v>0.006885973286484457</v>
+        <v>0.007697085166414547</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.11280596283526</v>
+        <v>2.180106333333333</v>
       </c>
       <c r="H15">
-        <v>2.11280596283526</v>
+        <v>6.540318999999999</v>
       </c>
       <c r="I15">
-        <v>0.09551788621904436</v>
+        <v>0.09290965434237122</v>
       </c>
       <c r="J15">
-        <v>0.09551788621904436</v>
+        <v>0.09290965434237124</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>16.2925037696789</v>
+        <v>16.336489</v>
       </c>
       <c r="N15">
-        <v>16.2925037696789</v>
+        <v>49.00946700000001</v>
       </c>
       <c r="O15">
-        <v>0.2976633224835754</v>
+        <v>0.2840040136038997</v>
       </c>
       <c r="P15">
-        <v>0.2976633224835754</v>
+        <v>0.2840040136038997</v>
       </c>
       <c r="Q15">
-        <v>34.42289911409352</v>
+        <v>35.61528313333034</v>
       </c>
       <c r="R15">
-        <v>34.42289911409352</v>
+        <v>320.537548199973</v>
       </c>
       <c r="S15">
-        <v>0.02843217136856886</v>
+        <v>0.02638671473578441</v>
       </c>
       <c r="T15">
-        <v>0.02843217136856886</v>
+        <v>0.02638671473578442</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.11280596283526</v>
+        <v>2.180106333333333</v>
       </c>
       <c r="H16">
-        <v>2.11280596283526</v>
+        <v>6.540318999999999</v>
       </c>
       <c r="I16">
-        <v>0.09551788621904436</v>
+        <v>0.09290965434237122</v>
       </c>
       <c r="J16">
-        <v>0.09551788621904436</v>
+        <v>0.09290965434237124</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.40905119046333</v>
+        <v>10.06211</v>
       </c>
       <c r="N16">
-        <v>8.40905119046333</v>
+        <v>30.18633</v>
       </c>
       <c r="O16">
-        <v>0.1536329929194861</v>
+        <v>0.174926180608571</v>
       </c>
       <c r="P16">
-        <v>0.1536329929194861</v>
+        <v>0.1749261806085711</v>
       </c>
       <c r="Q16">
-        <v>17.76669349699786</v>
+        <v>21.93646973769666</v>
       </c>
       <c r="R16">
-        <v>17.76669349699786</v>
+        <v>197.42822763927</v>
       </c>
       <c r="S16">
-        <v>0.01467469873717472</v>
+        <v>0.01625233097577353</v>
       </c>
       <c r="T16">
-        <v>0.01467469873717472</v>
+        <v>0.01625233097577354</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.11280596283526</v>
+        <v>2.180106333333333</v>
       </c>
       <c r="H17">
-        <v>2.11280596283526</v>
+        <v>6.540318999999999</v>
       </c>
       <c r="I17">
-        <v>0.09551788621904436</v>
+        <v>0.09290965434237122</v>
       </c>
       <c r="J17">
-        <v>0.09551788621904436</v>
+        <v>0.09290965434237124</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>26.0872418872183</v>
+        <v>26.358033</v>
       </c>
       <c r="N17">
-        <v>26.0872418872183</v>
+        <v>79.074099</v>
       </c>
       <c r="O17">
-        <v>0.4766127542062331</v>
+        <v>0.4582249688231074</v>
       </c>
       <c r="P17">
-        <v>0.4766127542062331</v>
+        <v>0.4582249688231074</v>
       </c>
       <c r="Q17">
-        <v>55.11728021324058</v>
+        <v>57.463314677509</v>
       </c>
       <c r="R17">
-        <v>55.11728021324058</v>
+        <v>517.169832097581</v>
       </c>
       <c r="S17">
-        <v>0.04552504282681633</v>
+        <v>0.04257352346439874</v>
       </c>
       <c r="T17">
-        <v>0.04552504282681633</v>
+        <v>0.04257352346439874</v>
       </c>
     </row>
   </sheetData>
